--- a/Person_B_and_trucks/on_trucks/Processed_Stand_Alone/48_455-55R22.xlsx
+++ b/Person_B_and_trucks/on_trucks/Processed_Stand_Alone/48_455-55R22.xlsx
@@ -19,7 +19,142 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="102">
+  <si>
+    <t>Signal_Value_44</t>
+  </si>
+  <si>
+    <t>Signal_Value_45</t>
+  </si>
+  <si>
+    <t>Signal_Value_46</t>
+  </si>
+  <si>
+    <t>Signal_Value_47</t>
+  </si>
+  <si>
+    <t>Signal_Value_48</t>
+  </si>
+  <si>
+    <t>Signal_Value_49</t>
+  </si>
+  <si>
+    <t>Signal_Value_50</t>
+  </si>
+  <si>
+    <t>Signal_Value_51</t>
+  </si>
+  <si>
+    <t>Signal_Value_52</t>
+  </si>
+  <si>
+    <t>Signal_Value_53</t>
+  </si>
+  <si>
+    <t>Signal_Value_54</t>
+  </si>
+  <si>
+    <t>Signal_Value_55</t>
+  </si>
+  <si>
+    <t>Signal_Value_56</t>
+  </si>
+  <si>
+    <t>Signal_Value_57</t>
+  </si>
+  <si>
+    <t>Signal_Value_58</t>
+  </si>
+  <si>
+    <t>Signal_Value_59</t>
+  </si>
+  <si>
+    <t>Signal_Value_60</t>
+  </si>
+  <si>
+    <t>Signal_Value_61</t>
+  </si>
+  <si>
+    <t>Signal_Value_62</t>
+  </si>
+  <si>
+    <t>Signal_Value_63</t>
+  </si>
+  <si>
+    <t>Signal_Value_64</t>
+  </si>
+  <si>
+    <t>Signal_Value_65</t>
+  </si>
+  <si>
+    <t>Signal_Value_66</t>
+  </si>
+  <si>
+    <t>Signal_Value_67</t>
+  </si>
+  <si>
+    <t>Signal_Value_68</t>
+  </si>
+  <si>
+    <t>Signal_Value_69</t>
+  </si>
+  <si>
+    <t>Signal_Value_70</t>
+  </si>
+  <si>
+    <t>Signal_Value_71</t>
+  </si>
+  <si>
+    <t>Signal_Value_72</t>
+  </si>
+  <si>
+    <t>Signal_Value_73</t>
+  </si>
+  <si>
+    <t>Signal_Value_74</t>
+  </si>
+  <si>
+    <t>Signal_Value_75</t>
+  </si>
+  <si>
+    <t>Signal_Value_76</t>
+  </si>
+  <si>
+    <t>Signal_Value_77</t>
+  </si>
+  <si>
+    <t>Signal_Value_78</t>
+  </si>
+  <si>
+    <t>Signal_Value_79</t>
+  </si>
+  <si>
+    <t>Signal_Value_80</t>
+  </si>
+  <si>
+    <t>Signal_Value_81</t>
+  </si>
+  <si>
+    <t>Signal_Value_82</t>
+  </si>
+  <si>
+    <t>Signal_Value_83</t>
+  </si>
+  <si>
+    <t>Signal_Value_84</t>
+  </si>
+  <si>
+    <t>Signal_Value_85</t>
+  </si>
+  <si>
+    <t>Signal_Value_86</t>
+  </si>
+  <si>
+    <t>Signal_Value_87</t>
+  </si>
+  <si>
+    <t>Signal_Value_88</t>
+  </si>
   <si>
     <t>Signal_Value_89</t>
   </si>
@@ -547,15 +682,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AJ6"/>
+  <dimension ref="A1:CC6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:36">
+    <row r="1" spans="1:81">
       <c r="A1" s="1" t="s">
-        <v>35</v>
+        <v>80</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -662,10 +797,145 @@
       <c r="AJ1" s="1" t="s">
         <v>34</v>
       </c>
+      <c r="AK1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AP1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AR1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AS1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AT1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AU1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AV1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AW1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AX1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AY1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AZ1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="BA1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BB1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BC1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BD1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BE1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BF1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BG1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BH1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BI1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BJ1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BK1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BL1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BM1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BN1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BO1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BP1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BQ1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BR1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BS1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BT1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BU1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BV1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BW1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BX1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BY1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BZ1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="CA1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CB1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CC1" s="1" t="s">
+        <v>79</v>
+      </c>
     </row>
-    <row r="2" spans="1:36">
+    <row r="2" spans="1:81">
       <c r="A2" s="1" t="s">
-        <v>36</v>
+        <v>81</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -674,58 +944,58 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.2605598194680626</v>
+        <v>0</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.1333392950682297</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>0.01557568371055711</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>0.05144960314866772</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>0.001891878845235774</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>0.01102334401284815</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>0.00465182763312846</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>0.002763541283223176</v>
+        <v>0</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.02075608389873396</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>0.1605308550461695</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>0.03133180736799802</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>0.1343854541377556</v>
+        <v>0</v>
       </c>
       <c r="R2">
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.0809223338361748</v>
+        <v>0</v>
       </c>
       <c r="T2">
-        <v>0.01135239219991543</v>
+        <v>0</v>
       </c>
       <c r="U2">
-        <v>0.02990757964465863</v>
+        <v>0</v>
       </c>
       <c r="V2">
         <v>0</v>
@@ -740,7 +1010,7 @@
         <v>0</v>
       </c>
       <c r="Z2">
-        <v>0.002248160795603079</v>
+        <v>0</v>
       </c>
       <c r="AA2">
         <v>0</v>
@@ -755,10 +1025,10 @@
         <v>0</v>
       </c>
       <c r="AE2">
-        <v>0.0009379242810787525</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>0.001698601146577091</v>
+        <v>0</v>
       </c>
       <c r="AG2">
         <v>0</v>
@@ -767,15 +1037,150 @@
         <v>0</v>
       </c>
       <c r="AI2">
-        <v>0.04467381447538246</v>
+        <v>0</v>
       </c>
       <c r="AJ2">
         <v>0</v>
       </c>
+      <c r="AK2">
+        <v>0</v>
+      </c>
+      <c r="AL2">
+        <v>0</v>
+      </c>
+      <c r="AM2">
+        <v>0</v>
+      </c>
+      <c r="AN2">
+        <v>0</v>
+      </c>
+      <c r="AO2">
+        <v>0</v>
+      </c>
+      <c r="AP2">
+        <v>0</v>
+      </c>
+      <c r="AQ2">
+        <v>0</v>
+      </c>
+      <c r="AR2">
+        <v>0.1249383072306605</v>
+      </c>
+      <c r="AS2">
+        <v>0.047019229619788</v>
+      </c>
+      <c r="AT2">
+        <v>0.02320007643944295</v>
+      </c>
+      <c r="AU2">
+        <v>0</v>
+      </c>
+      <c r="AV2">
+        <v>0</v>
+      </c>
+      <c r="AW2">
+        <v>0.1099984473322792</v>
+      </c>
+      <c r="AX2">
+        <v>0.01335765155176704</v>
+      </c>
+      <c r="AY2">
+        <v>0</v>
+      </c>
+      <c r="AZ2">
+        <v>0.05313926114920927</v>
+      </c>
+      <c r="BA2">
+        <v>0.1000651676034508</v>
+      </c>
+      <c r="BB2">
+        <v>0</v>
+      </c>
+      <c r="BC2">
+        <v>0.0009375147419369306</v>
+      </c>
+      <c r="BD2">
+        <v>0.02984245188229444</v>
+      </c>
+      <c r="BE2">
+        <v>0.07279839857370834</v>
+      </c>
+      <c r="BF2">
+        <v>0</v>
+      </c>
+      <c r="BG2">
+        <v>0.02513495578254614</v>
+      </c>
+      <c r="BH2">
+        <v>0.01437312615742935</v>
+      </c>
+      <c r="BI2">
+        <v>0</v>
+      </c>
+      <c r="BJ2">
+        <v>0.02889195878131369</v>
+      </c>
+      <c r="BK2">
+        <v>0</v>
+      </c>
+      <c r="BL2">
+        <v>0.09379050598663051</v>
+      </c>
+      <c r="BM2">
+        <v>0.0218047460642912</v>
+      </c>
+      <c r="BN2">
+        <v>0.04327700101944695</v>
+      </c>
+      <c r="BO2">
+        <v>0.07395777618282928</v>
+      </c>
+      <c r="BP2">
+        <v>0</v>
+      </c>
+      <c r="BQ2">
+        <v>0.04997361954602422</v>
+      </c>
+      <c r="BR2">
+        <v>0.02456271539708192</v>
+      </c>
+      <c r="BS2">
+        <v>0</v>
+      </c>
+      <c r="BT2">
+        <v>0.004350476736461478</v>
+      </c>
+      <c r="BU2">
+        <v>0</v>
+      </c>
+      <c r="BV2">
+        <v>0.0445866122214075</v>
+      </c>
+      <c r="BW2">
+        <v>0</v>
+      </c>
+      <c r="BX2">
+        <v>0</v>
+      </c>
+      <c r="BY2">
+        <v>0</v>
+      </c>
+      <c r="BZ2">
+        <v>0</v>
+      </c>
+      <c r="CA2">
+        <v>0</v>
+      </c>
+      <c r="CB2">
+        <v>0</v>
+      </c>
+      <c r="CC2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="1:36">
+    <row r="3" spans="1:81">
       <c r="A3" s="1" t="s">
-        <v>37</v>
+        <v>82</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -784,58 +1189,58 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.3134382243586167</v>
+        <v>0</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.1428383548134479</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>0.01153690470924683</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>0.04432734569614721</v>
+        <v>0</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.01881961104627377</v>
+        <v>0</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.004130124788082941</v>
+        <v>0</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.0096280222331679</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>0.1741062794079408</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>0.07177018864365892</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>0.04872808538064579</v>
+        <v>0</v>
       </c>
       <c r="R3">
-        <v>0.003341768899028189</v>
+        <v>0</v>
       </c>
       <c r="S3">
-        <v>0.03314731615159337</v>
+        <v>0</v>
       </c>
       <c r="T3">
-        <v>0.00506446169986638</v>
+        <v>0</v>
       </c>
       <c r="U3">
-        <v>0.02213569322971907</v>
+        <v>0</v>
       </c>
       <c r="V3">
         <v>0</v>
@@ -844,25 +1249,25 @@
         <v>0</v>
       </c>
       <c r="X3">
-        <v>0.02428874147716304</v>
+        <v>0</v>
       </c>
       <c r="Y3">
         <v>0</v>
       </c>
       <c r="Z3">
-        <v>0.01704531394526032</v>
+        <v>0</v>
       </c>
       <c r="AA3">
         <v>0</v>
       </c>
       <c r="AB3">
-        <v>0.004583697710067895</v>
+        <v>0</v>
       </c>
       <c r="AC3">
-        <v>0.005746246653726636</v>
+        <v>0</v>
       </c>
       <c r="AD3">
-        <v>0.0151769952252822</v>
+        <v>0</v>
       </c>
       <c r="AE3">
         <v>0</v>
@@ -877,15 +1282,150 @@
         <v>0</v>
       </c>
       <c r="AI3">
-        <v>0.0301466239310643</v>
+        <v>0</v>
       </c>
       <c r="AJ3">
         <v>0</v>
       </c>
+      <c r="AK3">
+        <v>0</v>
+      </c>
+      <c r="AL3">
+        <v>0</v>
+      </c>
+      <c r="AM3">
+        <v>0</v>
+      </c>
+      <c r="AN3">
+        <v>0</v>
+      </c>
+      <c r="AO3">
+        <v>0</v>
+      </c>
+      <c r="AP3">
+        <v>0</v>
+      </c>
+      <c r="AQ3">
+        <v>0</v>
+      </c>
+      <c r="AR3">
+        <v>0</v>
+      </c>
+      <c r="AS3">
+        <v>0</v>
+      </c>
+      <c r="AT3">
+        <v>0</v>
+      </c>
+      <c r="AU3">
+        <v>0</v>
+      </c>
+      <c r="AV3">
+        <v>0</v>
+      </c>
+      <c r="AW3">
+        <v>0.1745405824992442</v>
+      </c>
+      <c r="AX3">
+        <v>0.06302640764864402</v>
+      </c>
+      <c r="AY3">
+        <v>0.0006412606801945696</v>
+      </c>
+      <c r="AZ3">
+        <v>0.02112261539162241</v>
+      </c>
+      <c r="BA3">
+        <v>0</v>
+      </c>
+      <c r="BB3">
+        <v>0.1792067730205693</v>
+      </c>
+      <c r="BC3">
+        <v>0.08625977893897682</v>
+      </c>
+      <c r="BD3">
+        <v>0.002217535454742616</v>
+      </c>
+      <c r="BE3">
+        <v>0.08448709392345212</v>
+      </c>
+      <c r="BF3">
+        <v>0.02001099148854144</v>
+      </c>
+      <c r="BG3">
+        <v>0</v>
+      </c>
+      <c r="BH3">
+        <v>0</v>
+      </c>
+      <c r="BI3">
+        <v>0.1566134055296756</v>
+      </c>
+      <c r="BJ3">
+        <v>0.009489432116344116</v>
+      </c>
+      <c r="BK3">
+        <v>0.009379825978747078</v>
+      </c>
+      <c r="BL3">
+        <v>0</v>
+      </c>
+      <c r="BM3">
+        <v>0</v>
+      </c>
+      <c r="BN3">
+        <v>0</v>
+      </c>
+      <c r="BO3">
+        <v>0</v>
+      </c>
+      <c r="BP3">
+        <v>0</v>
+      </c>
+      <c r="BQ3">
+        <v>0.05891450757578248</v>
+      </c>
+      <c r="BR3">
+        <v>0.003410614430718909</v>
+      </c>
+      <c r="BS3">
+        <v>0.02616641136413136</v>
+      </c>
+      <c r="BT3">
+        <v>0.03324028820100944</v>
+      </c>
+      <c r="BU3">
+        <v>0</v>
+      </c>
+      <c r="BV3">
+        <v>0.05734957228253272</v>
+      </c>
+      <c r="BW3">
+        <v>0</v>
+      </c>
+      <c r="BX3">
+        <v>0</v>
+      </c>
+      <c r="BY3">
+        <v>0</v>
+      </c>
+      <c r="BZ3">
+        <v>0.01194785531087064</v>
+      </c>
+      <c r="CA3">
+        <v>0</v>
+      </c>
+      <c r="CB3">
+        <v>0.00197504816420016</v>
+      </c>
+      <c r="CC3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="4" spans="1:36">
+    <row r="4" spans="1:81">
       <c r="A4" s="1" t="s">
-        <v>38</v>
+        <v>83</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -897,58 +1437,58 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.2371450737113429</v>
+        <v>0</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.1718116493888919</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>0.01155098345208545</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>0.04795883080954184</v>
+        <v>0</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.01566704258236823</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>0.02330033608720819</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>0.01147911876082595</v>
+        <v>0</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0.04833891815611251</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>0.1446110901864938</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>0.06393150330817049</v>
+        <v>0</v>
       </c>
       <c r="R4">
-        <v>0.07085246636581628</v>
+        <v>0</v>
       </c>
       <c r="S4">
-        <v>0.02611413669649911</v>
+        <v>0</v>
       </c>
       <c r="T4">
-        <v>0.04004091201069983</v>
+        <v>0</v>
       </c>
       <c r="U4">
-        <v>0.009376289962775033</v>
+        <v>0</v>
       </c>
       <c r="V4">
-        <v>0.02406257554946404</v>
+        <v>0</v>
       </c>
       <c r="W4">
         <v>0</v>
@@ -963,7 +1503,7 @@
         <v>0</v>
       </c>
       <c r="AA4">
-        <v>0.00916444107626488</v>
+        <v>0</v>
       </c>
       <c r="AB4">
         <v>0</v>
@@ -975,10 +1515,10 @@
         <v>0</v>
       </c>
       <c r="AE4">
-        <v>0.01392814647267863</v>
+        <v>0</v>
       </c>
       <c r="AF4">
-        <v>0.0009503843313881941</v>
+        <v>0</v>
       </c>
       <c r="AG4">
         <v>0</v>
@@ -990,12 +1530,147 @@
         <v>0</v>
       </c>
       <c r="AJ4">
-        <v>0.02971610109137296</v>
+        <v>0</v>
+      </c>
+      <c r="AK4">
+        <v>0</v>
+      </c>
+      <c r="AL4">
+        <v>0</v>
+      </c>
+      <c r="AM4">
+        <v>0</v>
+      </c>
+      <c r="AN4">
+        <v>0</v>
+      </c>
+      <c r="AO4">
+        <v>0</v>
+      </c>
+      <c r="AP4">
+        <v>0</v>
+      </c>
+      <c r="AQ4">
+        <v>0</v>
+      </c>
+      <c r="AR4">
+        <v>0</v>
+      </c>
+      <c r="AS4">
+        <v>0</v>
+      </c>
+      <c r="AT4">
+        <v>0</v>
+      </c>
+      <c r="AU4">
+        <v>0</v>
+      </c>
+      <c r="AV4">
+        <v>0</v>
+      </c>
+      <c r="AW4">
+        <v>0</v>
+      </c>
+      <c r="AX4">
+        <v>0.2186918018762961</v>
+      </c>
+      <c r="AY4">
+        <v>0.01222955717404998</v>
+      </c>
+      <c r="AZ4">
+        <v>0.03672431436700663</v>
+      </c>
+      <c r="BA4">
+        <v>0</v>
+      </c>
+      <c r="BB4">
+        <v>0</v>
+      </c>
+      <c r="BC4">
+        <v>0.1142975921903147</v>
+      </c>
+      <c r="BD4">
+        <v>0.1757310399885162</v>
+      </c>
+      <c r="BE4">
+        <v>0</v>
+      </c>
+      <c r="BF4">
+        <v>0.04610969457795824</v>
+      </c>
+      <c r="BG4">
+        <v>0.05348617033823248</v>
+      </c>
+      <c r="BH4">
+        <v>0</v>
+      </c>
+      <c r="BI4">
+        <v>0</v>
+      </c>
+      <c r="BJ4">
+        <v>0.108104657741539</v>
+      </c>
+      <c r="BK4">
+        <v>0.0574228475949848</v>
+      </c>
+      <c r="BL4">
+        <v>0</v>
+      </c>
+      <c r="BM4">
+        <v>0</v>
+      </c>
+      <c r="BN4">
+        <v>0</v>
+      </c>
+      <c r="BO4">
+        <v>0</v>
+      </c>
+      <c r="BP4">
+        <v>0</v>
+      </c>
+      <c r="BQ4">
+        <v>0</v>
+      </c>
+      <c r="BR4">
+        <v>0.02243017526583593</v>
+      </c>
+      <c r="BS4">
+        <v>0.02901052019430726</v>
+      </c>
+      <c r="BT4">
+        <v>0</v>
+      </c>
+      <c r="BU4">
+        <v>0.06596645829283009</v>
+      </c>
+      <c r="BV4">
+        <v>0</v>
+      </c>
+      <c r="BW4">
+        <v>0.03650379560623964</v>
+      </c>
+      <c r="BX4">
+        <v>0.007359946706361573</v>
+      </c>
+      <c r="BY4">
+        <v>0</v>
+      </c>
+      <c r="BZ4">
+        <v>0</v>
+      </c>
+      <c r="CA4">
+        <v>0.003595567065336973</v>
+      </c>
+      <c r="CB4">
+        <v>0.0123358610201902</v>
+      </c>
+      <c r="CC4">
+        <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:36">
+    <row r="5" spans="1:81">
       <c r="A5" s="1" t="s">
-        <v>39</v>
+        <v>84</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -1007,58 +1682,58 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.2713070837673133</v>
+        <v>0</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.1681218698637197</v>
+        <v>0</v>
       </c>
       <c r="H5">
-        <v>0.02748009696032527</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>0.05152285502235969</v>
+        <v>0</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.007275039541223416</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>0.02424184661209161</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>0.003825665148053303</v>
+        <v>0</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>0.054935088523334</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>0.1143084733691273</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>0.02492813296486079</v>
+        <v>0</v>
       </c>
       <c r="R5">
-        <v>0.08431682811602485</v>
+        <v>0</v>
       </c>
       <c r="S5">
-        <v>0.02908413862659222</v>
+        <v>0</v>
       </c>
       <c r="T5">
-        <v>0.03111450661451666</v>
+        <v>0</v>
       </c>
       <c r="U5">
-        <v>0.01322504805457976</v>
+        <v>0</v>
       </c>
       <c r="V5">
-        <v>0.02538503571592458</v>
+        <v>0</v>
       </c>
       <c r="W5">
         <v>0</v>
@@ -1070,10 +1745,10 @@
         <v>0</v>
       </c>
       <c r="Z5">
-        <v>0.0001723264425930052</v>
+        <v>0</v>
       </c>
       <c r="AA5">
-        <v>0.02912870875757922</v>
+        <v>0</v>
       </c>
       <c r="AB5">
         <v>0</v>
@@ -1085,27 +1760,162 @@
         <v>0</v>
       </c>
       <c r="AE5">
-        <v>0.0002384894648214687</v>
+        <v>0</v>
       </c>
       <c r="AF5">
-        <v>0.0008359842936227797</v>
+        <v>0</v>
       </c>
       <c r="AG5">
-        <v>0.004596580553926574</v>
+        <v>0</v>
       </c>
       <c r="AH5">
-        <v>0.01343835554110361</v>
+        <v>0</v>
       </c>
       <c r="AI5">
         <v>0</v>
       </c>
       <c r="AJ5">
-        <v>0.02051784604630679</v>
+        <v>0</v>
+      </c>
+      <c r="AK5">
+        <v>0</v>
+      </c>
+      <c r="AL5">
+        <v>0</v>
+      </c>
+      <c r="AM5">
+        <v>0</v>
+      </c>
+      <c r="AN5">
+        <v>0</v>
+      </c>
+      <c r="AO5">
+        <v>0</v>
+      </c>
+      <c r="AP5">
+        <v>0</v>
+      </c>
+      <c r="AQ5">
+        <v>0.0833755179418523</v>
+      </c>
+      <c r="AR5">
+        <v>0</v>
+      </c>
+      <c r="AS5">
+        <v>0.09278793038445801</v>
+      </c>
+      <c r="AT5">
+        <v>0</v>
+      </c>
+      <c r="AU5">
+        <v>0</v>
+      </c>
+      <c r="AV5">
+        <v>0.01480381684590651</v>
+      </c>
+      <c r="AW5">
+        <v>0.09670970695397274</v>
+      </c>
+      <c r="AX5">
+        <v>0</v>
+      </c>
+      <c r="AY5">
+        <v>0</v>
+      </c>
+      <c r="AZ5">
+        <v>0.1352121229388227</v>
+      </c>
+      <c r="BA5">
+        <v>0</v>
+      </c>
+      <c r="BB5">
+        <v>0.01987845185799308</v>
+      </c>
+      <c r="BC5">
+        <v>0</v>
+      </c>
+      <c r="BD5">
+        <v>0.1345700816592705</v>
+      </c>
+      <c r="BE5">
+        <v>0.00368820965035784</v>
+      </c>
+      <c r="BF5">
+        <v>0.02314752300246283</v>
+      </c>
+      <c r="BG5">
+        <v>0.02497055314087944</v>
+      </c>
+      <c r="BH5">
+        <v>0</v>
+      </c>
+      <c r="BI5">
+        <v>0.007719864296205348</v>
+      </c>
+      <c r="BJ5">
+        <v>0.01401914392547733</v>
+      </c>
+      <c r="BK5">
+        <v>0.02968926107337582</v>
+      </c>
+      <c r="BL5">
+        <v>0.1004174280007799</v>
+      </c>
+      <c r="BM5">
+        <v>0</v>
+      </c>
+      <c r="BN5">
+        <v>0.09559853932730783</v>
+      </c>
+      <c r="BO5">
+        <v>0</v>
+      </c>
+      <c r="BP5">
+        <v>0.01512713757502279</v>
+      </c>
+      <c r="BQ5">
+        <v>0.05609655442182732</v>
+      </c>
+      <c r="BR5">
+        <v>0</v>
+      </c>
+      <c r="BS5">
+        <v>0.009616267597795287</v>
+      </c>
+      <c r="BT5">
+        <v>0</v>
+      </c>
+      <c r="BU5">
+        <v>0.03252779475044835</v>
+      </c>
+      <c r="BV5">
+        <v>0.01004409465578393</v>
+      </c>
+      <c r="BW5">
+        <v>0</v>
+      </c>
+      <c r="BX5">
+        <v>0</v>
+      </c>
+      <c r="BY5">
+        <v>0</v>
+      </c>
+      <c r="BZ5">
+        <v>0</v>
+      </c>
+      <c r="CA5">
+        <v>0</v>
+      </c>
+      <c r="CB5">
+        <v>0</v>
+      </c>
+      <c r="CC5">
+        <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:36">
+    <row r="6" spans="1:81">
       <c r="A6" s="1" t="s">
-        <v>40</v>
+        <v>85</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -1114,58 +1924,58 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.1924368212432876</v>
+        <v>0.1225816151695269</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.09506947079763566</v>
+        <v>0.09208356089644845</v>
       </c>
       <c r="G6">
-        <v>0.07249514301565829</v>
+        <v>0</v>
       </c>
       <c r="H6">
-        <v>0.08967607557102369</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>0.0611892005230292</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.1027030556888361</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>0.03674224392860786</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.03451402291591786</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.1292924698053985</v>
       </c>
       <c r="N6">
-        <v>0.1639004799288875</v>
+        <v>0.002748211830042279</v>
       </c>
       <c r="O6">
-        <v>0.1702928832913681</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>0.02883395801095786</v>
       </c>
       <c r="Q6">
-        <v>0.03460803766118675</v>
+        <v>0.1277110247349171</v>
       </c>
       <c r="R6">
-        <v>0.005820300075650163</v>
+        <v>0</v>
       </c>
       <c r="S6">
-        <v>0.04615675445203903</v>
+        <v>0.02128588292757283</v>
       </c>
       <c r="T6">
-        <v>0.001701107425599377</v>
+        <v>0</v>
       </c>
       <c r="U6">
-        <v>0.07130827401405458</v>
+        <v>0</v>
       </c>
       <c r="V6">
         <v>0</v>
@@ -1174,42 +1984,177 @@
         <v>0</v>
       </c>
       <c r="X6">
-        <v>0</v>
+        <v>0.01786802075991172</v>
       </c>
       <c r="Y6">
-        <v>0</v>
+        <v>0.01282361730109053</v>
       </c>
       <c r="Z6">
-        <v>0.01686878650975714</v>
+        <v>0</v>
       </c>
       <c r="AA6">
-        <v>0</v>
+        <v>0.03290992083269113</v>
       </c>
       <c r="AB6">
-        <v>0</v>
+        <v>0.001506620053484395</v>
       </c>
       <c r="AC6">
-        <v>0</v>
+        <v>0.03083697491940603</v>
       </c>
       <c r="AD6">
-        <v>0</v>
+        <v>0.04634350691734562</v>
       </c>
       <c r="AE6">
-        <v>0.002893553666939558</v>
+        <v>0</v>
       </c>
       <c r="AF6">
-        <v>0.009942521052731577</v>
+        <v>0</v>
       </c>
       <c r="AG6">
-        <v>0.01032072745644992</v>
+        <v>0.04542717475341543</v>
       </c>
       <c r="AH6">
-        <v>0</v>
+        <v>0.05259891803140034</v>
       </c>
       <c r="AI6">
-        <v>0.01650906383773083</v>
+        <v>0</v>
       </c>
       <c r="AJ6">
+        <v>0</v>
+      </c>
+      <c r="AK6">
+        <v>0</v>
+      </c>
+      <c r="AL6">
+        <v>0</v>
+      </c>
+      <c r="AM6">
+        <v>0</v>
+      </c>
+      <c r="AN6">
+        <v>0</v>
+      </c>
+      <c r="AO6">
+        <v>0</v>
+      </c>
+      <c r="AP6">
+        <v>0</v>
+      </c>
+      <c r="AQ6">
+        <v>0</v>
+      </c>
+      <c r="AR6">
+        <v>0</v>
+      </c>
+      <c r="AS6">
+        <v>0</v>
+      </c>
+      <c r="AT6">
+        <v>0</v>
+      </c>
+      <c r="AU6">
+        <v>0</v>
+      </c>
+      <c r="AV6">
+        <v>0</v>
+      </c>
+      <c r="AW6">
+        <v>0</v>
+      </c>
+      <c r="AX6">
+        <v>0</v>
+      </c>
+      <c r="AY6">
+        <v>0</v>
+      </c>
+      <c r="AZ6">
+        <v>0</v>
+      </c>
+      <c r="BA6">
+        <v>0</v>
+      </c>
+      <c r="BB6">
+        <v>0</v>
+      </c>
+      <c r="BC6">
+        <v>0</v>
+      </c>
+      <c r="BD6">
+        <v>0</v>
+      </c>
+      <c r="BE6">
+        <v>0</v>
+      </c>
+      <c r="BF6">
+        <v>0</v>
+      </c>
+      <c r="BG6">
+        <v>0</v>
+      </c>
+      <c r="BH6">
+        <v>0</v>
+      </c>
+      <c r="BI6">
+        <v>0</v>
+      </c>
+      <c r="BJ6">
+        <v>0</v>
+      </c>
+      <c r="BK6">
+        <v>0</v>
+      </c>
+      <c r="BL6">
+        <v>0</v>
+      </c>
+      <c r="BM6">
+        <v>0</v>
+      </c>
+      <c r="BN6">
+        <v>0</v>
+      </c>
+      <c r="BO6">
+        <v>0</v>
+      </c>
+      <c r="BP6">
+        <v>0</v>
+      </c>
+      <c r="BQ6">
+        <v>0</v>
+      </c>
+      <c r="BR6">
+        <v>0</v>
+      </c>
+      <c r="BS6">
+        <v>0</v>
+      </c>
+      <c r="BT6">
+        <v>0</v>
+      </c>
+      <c r="BU6">
+        <v>0</v>
+      </c>
+      <c r="BV6">
+        <v>0</v>
+      </c>
+      <c r="BW6">
+        <v>0</v>
+      </c>
+      <c r="BX6">
+        <v>0</v>
+      </c>
+      <c r="BY6">
+        <v>0</v>
+      </c>
+      <c r="BZ6">
+        <v>0</v>
+      </c>
+      <c r="CA6">
+        <v>0</v>
+      </c>
+      <c r="CB6">
+        <v>0</v>
+      </c>
+      <c r="CC6">
         <v>0</v>
       </c>
     </row>
@@ -1220,15 +2165,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AJ6"/>
+  <dimension ref="A1:CC6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:36">
+    <row r="1" spans="1:81">
       <c r="A1" s="1" t="s">
-        <v>35</v>
+        <v>80</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -1335,10 +2280,145 @@
       <c r="AJ1" s="1" t="s">
         <v>34</v>
       </c>
+      <c r="AK1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AP1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AR1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AS1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AT1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AU1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AV1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AW1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AX1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AY1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AZ1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="BA1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BB1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BC1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BD1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BE1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BF1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BG1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BH1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BI1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BJ1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BK1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BL1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BM1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BN1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BO1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BP1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BQ1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BR1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BS1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BT1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BU1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BV1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BW1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BX1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BY1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BZ1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="CA1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CB1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CC1" s="1" t="s">
+        <v>79</v>
+      </c>
     </row>
-    <row r="2" spans="1:36">
+    <row r="2" spans="1:81">
       <c r="A2" s="1" t="s">
-        <v>36</v>
+        <v>81</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -1347,438 +2427,978 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.2605598194680626</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>0.2605598194680626</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>0.3938991145362922</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>0.4094747982468493</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>0.460924401395517</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>0.4628162802407528</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>0.473839624253601</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>0.4784914518867294</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>0.4812549931699526</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>0.4812549931699526</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>0.5020110770686866</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>0.6625419321148561</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>0.6938737394828541</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>0.8282591936206097</v>
+        <v>0</v>
       </c>
       <c r="R2">
-        <v>0.8282591936206097</v>
+        <v>0</v>
       </c>
       <c r="S2">
-        <v>0.9091815274567845</v>
+        <v>0</v>
       </c>
       <c r="T2">
-        <v>0.9205339196567</v>
+        <v>0</v>
       </c>
       <c r="U2">
-        <v>0.9504414993013586</v>
+        <v>0</v>
       </c>
       <c r="V2">
-        <v>0.9504414993013586</v>
+        <v>0</v>
       </c>
       <c r="W2">
-        <v>0.9504414993013586</v>
+        <v>0</v>
       </c>
       <c r="X2">
-        <v>0.9504414993013586</v>
+        <v>0</v>
       </c>
       <c r="Y2">
-        <v>0.9504414993013586</v>
+        <v>0</v>
       </c>
       <c r="Z2">
-        <v>0.9526896600969617</v>
+        <v>0</v>
       </c>
       <c r="AA2">
-        <v>0.9526896600969617</v>
+        <v>0</v>
       </c>
       <c r="AB2">
-        <v>0.9526896600969617</v>
+        <v>0</v>
       </c>
       <c r="AC2">
-        <v>0.9526896600969617</v>
+        <v>0</v>
       </c>
       <c r="AD2">
-        <v>0.9526896600969617</v>
+        <v>0</v>
       </c>
       <c r="AE2">
-        <v>0.9536275843780404</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>0.9553261855246175</v>
+        <v>0</v>
       </c>
       <c r="AG2">
-        <v>0.9553261855246175</v>
+        <v>0</v>
       </c>
       <c r="AH2">
-        <v>0.9553261855246175</v>
+        <v>0</v>
       </c>
       <c r="AI2">
+        <v>0</v>
+      </c>
+      <c r="AJ2">
+        <v>0</v>
+      </c>
+      <c r="AK2">
+        <v>0</v>
+      </c>
+      <c r="AL2">
+        <v>0</v>
+      </c>
+      <c r="AM2">
+        <v>0</v>
+      </c>
+      <c r="AN2">
+        <v>0</v>
+      </c>
+      <c r="AO2">
+        <v>0</v>
+      </c>
+      <c r="AP2">
+        <v>0</v>
+      </c>
+      <c r="AQ2">
+        <v>0</v>
+      </c>
+      <c r="AR2">
+        <v>0.1249383072306605</v>
+      </c>
+      <c r="AS2">
+        <v>0.1719575368504485</v>
+      </c>
+      <c r="AT2">
+        <v>0.1951576132898914</v>
+      </c>
+      <c r="AU2">
+        <v>0.1951576132898914</v>
+      </c>
+      <c r="AV2">
+        <v>0.1951576132898914</v>
+      </c>
+      <c r="AW2">
+        <v>0.3051560606221707</v>
+      </c>
+      <c r="AX2">
+        <v>0.3185137121739377</v>
+      </c>
+      <c r="AY2">
+        <v>0.3185137121739377</v>
+      </c>
+      <c r="AZ2">
+        <v>0.371652973323147</v>
+      </c>
+      <c r="BA2">
+        <v>0.4717181409265978</v>
+      </c>
+      <c r="BB2">
+        <v>0.4717181409265978</v>
+      </c>
+      <c r="BC2">
+        <v>0.4726556556685347</v>
+      </c>
+      <c r="BD2">
+        <v>0.5024981075508291</v>
+      </c>
+      <c r="BE2">
+        <v>0.5752965061245374</v>
+      </c>
+      <c r="BF2">
+        <v>0.5752965061245374</v>
+      </c>
+      <c r="BG2">
+        <v>0.6004314619070835</v>
+      </c>
+      <c r="BH2">
+        <v>0.6148045880645129</v>
+      </c>
+      <c r="BI2">
+        <v>0.6148045880645129</v>
+      </c>
+      <c r="BJ2">
+        <v>0.6436965468458266</v>
+      </c>
+      <c r="BK2">
+        <v>0.6436965468458266</v>
+      </c>
+      <c r="BL2">
+        <v>0.7374870528324571</v>
+      </c>
+      <c r="BM2">
+        <v>0.7592917988967482</v>
+      </c>
+      <c r="BN2">
+        <v>0.8025687999161952</v>
+      </c>
+      <c r="BO2">
+        <v>0.8765265760990245</v>
+      </c>
+      <c r="BP2">
+        <v>0.8765265760990245</v>
+      </c>
+      <c r="BQ2">
+        <v>0.9265001956450487</v>
+      </c>
+      <c r="BR2">
+        <v>0.9510629110421306</v>
+      </c>
+      <c r="BS2">
+        <v>0.9510629110421306</v>
+      </c>
+      <c r="BT2">
+        <v>0.9554133877785921</v>
+      </c>
+      <c r="BU2">
+        <v>0.9554133877785921</v>
+      </c>
+      <c r="BV2">
+        <v>0.9999999999999996</v>
+      </c>
+      <c r="BW2">
+        <v>0.9999999999999996</v>
+      </c>
+      <c r="BX2">
+        <v>0.9999999999999996</v>
+      </c>
+      <c r="BY2">
+        <v>0.9999999999999996</v>
+      </c>
+      <c r="BZ2">
+        <v>0.9999999999999996</v>
+      </c>
+      <c r="CA2">
+        <v>0.9999999999999996</v>
+      </c>
+      <c r="CB2">
+        <v>0.9999999999999996</v>
+      </c>
+      <c r="CC2">
+        <v>0.9999999999999996</v>
+      </c>
+    </row>
+    <row r="3" spans="1:81">
+      <c r="A3" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+      <c r="T3">
+        <v>0</v>
+      </c>
+      <c r="U3">
+        <v>0</v>
+      </c>
+      <c r="V3">
+        <v>0</v>
+      </c>
+      <c r="W3">
+        <v>0</v>
+      </c>
+      <c r="X3">
+        <v>0</v>
+      </c>
+      <c r="Y3">
+        <v>0</v>
+      </c>
+      <c r="Z3">
+        <v>0</v>
+      </c>
+      <c r="AA3">
+        <v>0</v>
+      </c>
+      <c r="AB3">
+        <v>0</v>
+      </c>
+      <c r="AC3">
+        <v>0</v>
+      </c>
+      <c r="AD3">
+        <v>0</v>
+      </c>
+      <c r="AE3">
+        <v>0</v>
+      </c>
+      <c r="AF3">
+        <v>0</v>
+      </c>
+      <c r="AG3">
+        <v>0</v>
+      </c>
+      <c r="AH3">
+        <v>0</v>
+      </c>
+      <c r="AI3">
+        <v>0</v>
+      </c>
+      <c r="AJ3">
+        <v>0</v>
+      </c>
+      <c r="AK3">
+        <v>0</v>
+      </c>
+      <c r="AL3">
+        <v>0</v>
+      </c>
+      <c r="AM3">
+        <v>0</v>
+      </c>
+      <c r="AN3">
+        <v>0</v>
+      </c>
+      <c r="AO3">
+        <v>0</v>
+      </c>
+      <c r="AP3">
+        <v>0</v>
+      </c>
+      <c r="AQ3">
+        <v>0</v>
+      </c>
+      <c r="AR3">
+        <v>0</v>
+      </c>
+      <c r="AS3">
+        <v>0</v>
+      </c>
+      <c r="AT3">
+        <v>0</v>
+      </c>
+      <c r="AU3">
+        <v>0</v>
+      </c>
+      <c r="AV3">
+        <v>0</v>
+      </c>
+      <c r="AW3">
+        <v>0.1745405824992442</v>
+      </c>
+      <c r="AX3">
+        <v>0.2375669901478882</v>
+      </c>
+      <c r="AY3">
+        <v>0.2382082508280828</v>
+      </c>
+      <c r="AZ3">
+        <v>0.2593308662197052</v>
+      </c>
+      <c r="BA3">
+        <v>0.2593308662197052</v>
+      </c>
+      <c r="BB3">
+        <v>0.4385376392402744</v>
+      </c>
+      <c r="BC3">
+        <v>0.5247974181792513</v>
+      </c>
+      <c r="BD3">
+        <v>0.5270149536339939</v>
+      </c>
+      <c r="BE3">
+        <v>0.611502047557446</v>
+      </c>
+      <c r="BF3">
+        <v>0.6315130390459874</v>
+      </c>
+      <c r="BG3">
+        <v>0.6315130390459874</v>
+      </c>
+      <c r="BH3">
+        <v>0.6315130390459874</v>
+      </c>
+      <c r="BI3">
+        <v>0.7881264445756631</v>
+      </c>
+      <c r="BJ3">
+        <v>0.7976158766920072</v>
+      </c>
+      <c r="BK3">
+        <v>0.8069957026707543</v>
+      </c>
+      <c r="BL3">
+        <v>0.8069957026707543</v>
+      </c>
+      <c r="BM3">
+        <v>0.8069957026707543</v>
+      </c>
+      <c r="BN3">
+        <v>0.8069957026707543</v>
+      </c>
+      <c r="BO3">
+        <v>0.8069957026707543</v>
+      </c>
+      <c r="BP3">
+        <v>0.8069957026707543</v>
+      </c>
+      <c r="BQ3">
+        <v>0.8659102102465367</v>
+      </c>
+      <c r="BR3">
+        <v>0.8693208246772556</v>
+      </c>
+      <c r="BS3">
+        <v>0.8954872360413869</v>
+      </c>
+      <c r="BT3">
+        <v>0.9287275242423964</v>
+      </c>
+      <c r="BU3">
+        <v>0.9287275242423964</v>
+      </c>
+      <c r="BV3">
+        <v>0.986077096524929</v>
+      </c>
+      <c r="BW3">
+        <v>0.986077096524929</v>
+      </c>
+      <c r="BX3">
+        <v>0.986077096524929</v>
+      </c>
+      <c r="BY3">
+        <v>0.986077096524929</v>
+      </c>
+      <c r="BZ3">
+        <v>0.9980249518357996</v>
+      </c>
+      <c r="CA3">
+        <v>0.9980249518357996</v>
+      </c>
+      <c r="CB3">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="CC3">
+        <v>0.9999999999999998</v>
+      </c>
+    </row>
+    <row r="4" spans="1:81">
+      <c r="A4" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+      <c r="T4">
+        <v>0</v>
+      </c>
+      <c r="U4">
+        <v>0</v>
+      </c>
+      <c r="V4">
+        <v>0</v>
+      </c>
+      <c r="W4">
+        <v>0</v>
+      </c>
+      <c r="X4">
+        <v>0</v>
+      </c>
+      <c r="Y4">
+        <v>0</v>
+      </c>
+      <c r="Z4">
+        <v>0</v>
+      </c>
+      <c r="AA4">
+        <v>0</v>
+      </c>
+      <c r="AB4">
+        <v>0</v>
+      </c>
+      <c r="AC4">
+        <v>0</v>
+      </c>
+      <c r="AD4">
+        <v>0</v>
+      </c>
+      <c r="AE4">
+        <v>0</v>
+      </c>
+      <c r="AF4">
+        <v>0</v>
+      </c>
+      <c r="AG4">
+        <v>0</v>
+      </c>
+      <c r="AH4">
+        <v>0</v>
+      </c>
+      <c r="AI4">
+        <v>0</v>
+      </c>
+      <c r="AJ4">
+        <v>0</v>
+      </c>
+      <c r="AK4">
+        <v>0</v>
+      </c>
+      <c r="AL4">
+        <v>0</v>
+      </c>
+      <c r="AM4">
+        <v>0</v>
+      </c>
+      <c r="AN4">
+        <v>0</v>
+      </c>
+      <c r="AO4">
+        <v>0</v>
+      </c>
+      <c r="AP4">
+        <v>0</v>
+      </c>
+      <c r="AQ4">
+        <v>0</v>
+      </c>
+      <c r="AR4">
+        <v>0</v>
+      </c>
+      <c r="AS4">
+        <v>0</v>
+      </c>
+      <c r="AT4">
+        <v>0</v>
+      </c>
+      <c r="AU4">
+        <v>0</v>
+      </c>
+      <c r="AV4">
+        <v>0</v>
+      </c>
+      <c r="AW4">
+        <v>0</v>
+      </c>
+      <c r="AX4">
+        <v>0.2186918018762961</v>
+      </c>
+      <c r="AY4">
+        <v>0.2309213590503461</v>
+      </c>
+      <c r="AZ4">
+        <v>0.2676456734173527</v>
+      </c>
+      <c r="BA4">
+        <v>0.2676456734173527</v>
+      </c>
+      <c r="BB4">
+        <v>0.2676456734173527</v>
+      </c>
+      <c r="BC4">
+        <v>0.3819432656076674</v>
+      </c>
+      <c r="BD4">
+        <v>0.5576743055961837</v>
+      </c>
+      <c r="BE4">
+        <v>0.5576743055961837</v>
+      </c>
+      <c r="BF4">
+        <v>0.6037840001741419</v>
+      </c>
+      <c r="BG4">
+        <v>0.6572701705123744</v>
+      </c>
+      <c r="BH4">
+        <v>0.6572701705123744</v>
+      </c>
+      <c r="BI4">
+        <v>0.6572701705123744</v>
+      </c>
+      <c r="BJ4">
+        <v>0.7653748282539133</v>
+      </c>
+      <c r="BK4">
+        <v>0.8227976758488982</v>
+      </c>
+      <c r="BL4">
+        <v>0.8227976758488982</v>
+      </c>
+      <c r="BM4">
+        <v>0.8227976758488982</v>
+      </c>
+      <c r="BN4">
+        <v>0.8227976758488982</v>
+      </c>
+      <c r="BO4">
+        <v>0.8227976758488982</v>
+      </c>
+      <c r="BP4">
+        <v>0.8227976758488982</v>
+      </c>
+      <c r="BQ4">
+        <v>0.8227976758488982</v>
+      </c>
+      <c r="BR4">
+        <v>0.8452278511147341</v>
+      </c>
+      <c r="BS4">
+        <v>0.8742383713090414</v>
+      </c>
+      <c r="BT4">
+        <v>0.8742383713090414</v>
+      </c>
+      <c r="BU4">
+        <v>0.9402048296018715</v>
+      </c>
+      <c r="BV4">
+        <v>0.9402048296018715</v>
+      </c>
+      <c r="BW4">
+        <v>0.9767086252081111</v>
+      </c>
+      <c r="BX4">
+        <v>0.9840685719144726</v>
+      </c>
+      <c r="BY4">
+        <v>0.9840685719144726</v>
+      </c>
+      <c r="BZ4">
+        <v>0.9840685719144726</v>
+      </c>
+      <c r="CA4">
+        <v>0.9876641389798095</v>
+      </c>
+      <c r="CB4">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="CC4">
+        <v>0.9999999999999998</v>
+      </c>
+    </row>
+    <row r="5" spans="1:81">
+      <c r="A5" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+      <c r="T5">
+        <v>0</v>
+      </c>
+      <c r="U5">
+        <v>0</v>
+      </c>
+      <c r="V5">
+        <v>0</v>
+      </c>
+      <c r="W5">
+        <v>0</v>
+      </c>
+      <c r="X5">
+        <v>0</v>
+      </c>
+      <c r="Y5">
+        <v>0</v>
+      </c>
+      <c r="Z5">
+        <v>0</v>
+      </c>
+      <c r="AA5">
+        <v>0</v>
+      </c>
+      <c r="AB5">
+        <v>0</v>
+      </c>
+      <c r="AC5">
+        <v>0</v>
+      </c>
+      <c r="AD5">
+        <v>0</v>
+      </c>
+      <c r="AE5">
+        <v>0</v>
+      </c>
+      <c r="AF5">
+        <v>0</v>
+      </c>
+      <c r="AG5">
+        <v>0</v>
+      </c>
+      <c r="AH5">
+        <v>0</v>
+      </c>
+      <c r="AI5">
+        <v>0</v>
+      </c>
+      <c r="AJ5">
+        <v>0</v>
+      </c>
+      <c r="AK5">
+        <v>0</v>
+      </c>
+      <c r="AL5">
+        <v>0</v>
+      </c>
+      <c r="AM5">
+        <v>0</v>
+      </c>
+      <c r="AN5">
+        <v>0</v>
+      </c>
+      <c r="AO5">
+        <v>0</v>
+      </c>
+      <c r="AP5">
+        <v>0</v>
+      </c>
+      <c r="AQ5">
+        <v>0.0833755179418523</v>
+      </c>
+      <c r="AR5">
+        <v>0.0833755179418523</v>
+      </c>
+      <c r="AS5">
+        <v>0.1761634483263103</v>
+      </c>
+      <c r="AT5">
+        <v>0.1761634483263103</v>
+      </c>
+      <c r="AU5">
+        <v>0.1761634483263103</v>
+      </c>
+      <c r="AV5">
+        <v>0.1909672651722168</v>
+      </c>
+      <c r="AW5">
+        <v>0.2876769721261896</v>
+      </c>
+      <c r="AX5">
+        <v>0.2876769721261896</v>
+      </c>
+      <c r="AY5">
+        <v>0.2876769721261896</v>
+      </c>
+      <c r="AZ5">
+        <v>0.4228890950650123</v>
+      </c>
+      <c r="BA5">
+        <v>0.4228890950650123</v>
+      </c>
+      <c r="BB5">
+        <v>0.4427675469230054</v>
+      </c>
+      <c r="BC5">
+        <v>0.4427675469230054</v>
+      </c>
+      <c r="BD5">
+        <v>0.577337628582276</v>
+      </c>
+      <c r="BE5">
+        <v>0.5810258382326339</v>
+      </c>
+      <c r="BF5">
+        <v>0.6041733612350967</v>
+      </c>
+      <c r="BG5">
+        <v>0.6291439143759762</v>
+      </c>
+      <c r="BH5">
+        <v>0.6291439143759762</v>
+      </c>
+      <c r="BI5">
+        <v>0.6368637786721815</v>
+      </c>
+      <c r="BJ5">
+        <v>0.6508829225976588</v>
+      </c>
+      <c r="BK5">
+        <v>0.6805721836710346</v>
+      </c>
+      <c r="BL5">
+        <v>0.7809896116718145</v>
+      </c>
+      <c r="BM5">
+        <v>0.7809896116718145</v>
+      </c>
+      <c r="BN5">
+        <v>0.8765881509991222</v>
+      </c>
+      <c r="BO5">
+        <v>0.8765881509991222</v>
+      </c>
+      <c r="BP5">
+        <v>0.8917152885741451</v>
+      </c>
+      <c r="BQ5">
+        <v>0.9478118429959723</v>
+      </c>
+      <c r="BR5">
+        <v>0.9478118429959723</v>
+      </c>
+      <c r="BS5">
+        <v>0.9574281105937676</v>
+      </c>
+      <c r="BT5">
+        <v>0.9574281105937676</v>
+      </c>
+      <c r="BU5">
+        <v>0.989955905344216</v>
+      </c>
+      <c r="BV5">
         <v>0.9999999999999999</v>
       </c>
-      <c r="AJ2">
+      <c r="BW5">
         <v>0.9999999999999999</v>
       </c>
+      <c r="BX5">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="BY5">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="BZ5">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="CA5">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="CB5">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="CC5">
+        <v>0.9999999999999999</v>
+      </c>
     </row>
-    <row r="3" spans="1:36">
-      <c r="A3" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <v>0.3134382243586167</v>
-      </c>
-      <c r="E3">
-        <v>0.3134382243586167</v>
-      </c>
-      <c r="F3">
-        <v>0.4562765791720647</v>
-      </c>
-      <c r="G3">
-        <v>0.4678134838813115</v>
-      </c>
-      <c r="H3">
-        <v>0.5121408295774588</v>
-      </c>
-      <c r="I3">
-        <v>0.5121408295774588</v>
-      </c>
-      <c r="J3">
-        <v>0.5309604406237325</v>
-      </c>
-      <c r="K3">
-        <v>0.5309604406237325</v>
-      </c>
-      <c r="L3">
-        <v>0.5350905654118154</v>
-      </c>
-      <c r="M3">
-        <v>0.5350905654118154</v>
-      </c>
-      <c r="N3">
-        <v>0.5447185876449834</v>
-      </c>
-      <c r="O3">
-        <v>0.7188248670529243</v>
-      </c>
-      <c r="P3">
-        <v>0.7905950556965832</v>
-      </c>
-      <c r="Q3">
-        <v>0.8393231410772289</v>
-      </c>
-      <c r="R3">
-        <v>0.8426649099762571</v>
-      </c>
-      <c r="S3">
-        <v>0.8758122261278505</v>
-      </c>
-      <c r="T3">
-        <v>0.8808766878277169</v>
-      </c>
-      <c r="U3">
-        <v>0.903012381057436</v>
-      </c>
-      <c r="V3">
-        <v>0.903012381057436</v>
-      </c>
-      <c r="W3">
-        <v>0.903012381057436</v>
-      </c>
-      <c r="X3">
-        <v>0.9273011225345991</v>
-      </c>
-      <c r="Y3">
-        <v>0.9273011225345991</v>
-      </c>
-      <c r="Z3">
-        <v>0.9443464364798594</v>
-      </c>
-      <c r="AA3">
-        <v>0.9443464364798594</v>
-      </c>
-      <c r="AB3">
-        <v>0.9489301341899273</v>
-      </c>
-      <c r="AC3">
-        <v>0.9546763808436539</v>
-      </c>
-      <c r="AD3">
-        <v>0.9698533760689361</v>
-      </c>
-      <c r="AE3">
-        <v>0.9698533760689361</v>
-      </c>
-      <c r="AF3">
-        <v>0.9698533760689361</v>
-      </c>
-      <c r="AG3">
-        <v>0.9698533760689361</v>
-      </c>
-      <c r="AH3">
-        <v>0.9698533760689361</v>
-      </c>
-      <c r="AI3">
-        <v>1</v>
-      </c>
-      <c r="AJ3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:36">
-      <c r="A4" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>0.2371450737113429</v>
-      </c>
-      <c r="F4">
-        <v>0.2371450737113429</v>
-      </c>
-      <c r="G4">
-        <v>0.4089567231002348</v>
-      </c>
-      <c r="H4">
-        <v>0.4205077065523203</v>
-      </c>
-      <c r="I4">
-        <v>0.4684665373618621</v>
-      </c>
-      <c r="J4">
-        <v>0.4684665373618621</v>
-      </c>
-      <c r="K4">
-        <v>0.4841335799442303</v>
-      </c>
-      <c r="L4">
-        <v>0.5074339160314385</v>
-      </c>
-      <c r="M4">
-        <v>0.5189130347922645</v>
-      </c>
-      <c r="N4">
-        <v>0.5189130347922645</v>
-      </c>
-      <c r="O4">
-        <v>0.5672519529483769</v>
-      </c>
-      <c r="P4">
-        <v>0.7118630431348707</v>
-      </c>
-      <c r="Q4">
-        <v>0.7757945464430411</v>
-      </c>
-      <c r="R4">
-        <v>0.8466470128088575</v>
-      </c>
-      <c r="S4">
-        <v>0.8727611495053565</v>
-      </c>
-      <c r="T4">
-        <v>0.9128020615160564</v>
-      </c>
-      <c r="U4">
-        <v>0.9221783514788314</v>
-      </c>
-      <c r="V4">
-        <v>0.9462409270282954</v>
-      </c>
-      <c r="W4">
-        <v>0.9462409270282954</v>
-      </c>
-      <c r="X4">
-        <v>0.9462409270282954</v>
-      </c>
-      <c r="Y4">
-        <v>0.9462409270282954</v>
-      </c>
-      <c r="Z4">
-        <v>0.9462409270282954</v>
-      </c>
-      <c r="AA4">
-        <v>0.9554053681045603</v>
-      </c>
-      <c r="AB4">
-        <v>0.9554053681045603</v>
-      </c>
-      <c r="AC4">
-        <v>0.9554053681045603</v>
-      </c>
-      <c r="AD4">
-        <v>0.9554053681045603</v>
-      </c>
-      <c r="AE4">
-        <v>0.9693335145772389</v>
-      </c>
-      <c r="AF4">
-        <v>0.9702838989086271</v>
-      </c>
-      <c r="AG4">
-        <v>0.9702838989086271</v>
-      </c>
-      <c r="AH4">
-        <v>0.9702838989086271</v>
-      </c>
-      <c r="AI4">
-        <v>0.9702838989086271</v>
-      </c>
-      <c r="AJ4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:36">
-      <c r="A5" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>0.2713070837673133</v>
-      </c>
-      <c r="F5">
-        <v>0.2713070837673133</v>
-      </c>
-      <c r="G5">
-        <v>0.4394289536310331</v>
-      </c>
-      <c r="H5">
-        <v>0.4669090505913583</v>
-      </c>
-      <c r="I5">
-        <v>0.518431905613718</v>
-      </c>
-      <c r="J5">
-        <v>0.518431905613718</v>
-      </c>
-      <c r="K5">
-        <v>0.5257069451549414</v>
-      </c>
-      <c r="L5">
-        <v>0.549948791767033</v>
-      </c>
-      <c r="M5">
-        <v>0.5537744569150863</v>
-      </c>
-      <c r="N5">
-        <v>0.5537744569150863</v>
-      </c>
-      <c r="O5">
-        <v>0.6087095454384203</v>
-      </c>
-      <c r="P5">
-        <v>0.7230180188075476</v>
-      </c>
-      <c r="Q5">
-        <v>0.7479461517724084</v>
-      </c>
-      <c r="R5">
-        <v>0.8322629798884332</v>
-      </c>
-      <c r="S5">
-        <v>0.8613471185150254</v>
-      </c>
-      <c r="T5">
-        <v>0.8924616251295421</v>
-      </c>
-      <c r="U5">
-        <v>0.9056866731841219</v>
-      </c>
-      <c r="V5">
-        <v>0.9310717089000464</v>
-      </c>
-      <c r="W5">
-        <v>0.9310717089000464</v>
-      </c>
-      <c r="X5">
-        <v>0.9310717089000464</v>
-      </c>
-      <c r="Y5">
-        <v>0.9310717089000464</v>
-      </c>
-      <c r="Z5">
-        <v>0.9312440353426394</v>
-      </c>
-      <c r="AA5">
-        <v>0.9603727441002187</v>
-      </c>
-      <c r="AB5">
-        <v>0.9603727441002187</v>
-      </c>
-      <c r="AC5">
-        <v>0.9603727441002187</v>
-      </c>
-      <c r="AD5">
-        <v>0.9603727441002187</v>
-      </c>
-      <c r="AE5">
-        <v>0.9606112335650402</v>
-      </c>
-      <c r="AF5">
-        <v>0.9614472178586629</v>
-      </c>
-      <c r="AG5">
-        <v>0.9660437984125895</v>
-      </c>
-      <c r="AH5">
-        <v>0.9794821539536931</v>
-      </c>
-      <c r="AI5">
-        <v>0.9794821539536931</v>
-      </c>
-      <c r="AJ5">
-        <v>0.9999999999999999</v>
-      </c>
-    </row>
-    <row r="6" spans="1:36">
+    <row r="6" spans="1:81">
       <c r="A6" s="1" t="s">
-        <v>40</v>
+        <v>85</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -1787,103 +3407,238 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.1924368212432876</v>
+        <v>0.1225816151695269</v>
       </c>
       <c r="E6">
-        <v>0.1924368212432876</v>
+        <v>0.1225816151695269</v>
       </c>
       <c r="F6">
-        <v>0.2875062920409233</v>
+        <v>0.2146651760659753</v>
       </c>
       <c r="G6">
-        <v>0.3600014350565816</v>
+        <v>0.2146651760659753</v>
       </c>
       <c r="H6">
-        <v>0.4496775106276052</v>
+        <v>0.2146651760659753</v>
       </c>
       <c r="I6">
-        <v>0.4496775106276052</v>
+        <v>0.2758543765890046</v>
       </c>
       <c r="J6">
-        <v>0.4496775106276052</v>
+        <v>0.3785574322778407</v>
       </c>
       <c r="K6">
-        <v>0.4496775106276052</v>
+        <v>0.4152996762064485</v>
       </c>
       <c r="L6">
-        <v>0.4496775106276052</v>
+        <v>0.4498136991223664</v>
       </c>
       <c r="M6">
-        <v>0.4496775106276052</v>
+        <v>0.579106168927765</v>
       </c>
       <c r="N6">
-        <v>0.6135779905564928</v>
+        <v>0.5818543807578073</v>
       </c>
       <c r="O6">
-        <v>0.7838708738478608</v>
+        <v>0.5818543807578073</v>
       </c>
       <c r="P6">
-        <v>0.7838708738478608</v>
+        <v>0.6106883387687652</v>
       </c>
       <c r="Q6">
-        <v>0.8184789115090475</v>
+        <v>0.7383993635036822</v>
       </c>
       <c r="R6">
-        <v>0.8242992115846977</v>
+        <v>0.7383993635036822</v>
       </c>
       <c r="S6">
-        <v>0.8704559660367367</v>
+        <v>0.759685246431255</v>
       </c>
       <c r="T6">
-        <v>0.8721570734623361</v>
+        <v>0.759685246431255</v>
       </c>
       <c r="U6">
-        <v>0.9434653474763907</v>
+        <v>0.759685246431255</v>
       </c>
       <c r="V6">
-        <v>0.9434653474763907</v>
+        <v>0.759685246431255</v>
       </c>
       <c r="W6">
-        <v>0.9434653474763907</v>
+        <v>0.759685246431255</v>
       </c>
       <c r="X6">
-        <v>0.9434653474763907</v>
+        <v>0.7775532671911667</v>
       </c>
       <c r="Y6">
-        <v>0.9434653474763907</v>
+        <v>0.7903768844922572</v>
       </c>
       <c r="Z6">
-        <v>0.9603341339861478</v>
+        <v>0.7903768844922572</v>
       </c>
       <c r="AA6">
-        <v>0.9603341339861478</v>
+        <v>0.8232868053249484</v>
       </c>
       <c r="AB6">
-        <v>0.9603341339861478</v>
+        <v>0.8247934253784327</v>
       </c>
       <c r="AC6">
-        <v>0.9603341339861478</v>
+        <v>0.8556304002978388</v>
       </c>
       <c r="AD6">
-        <v>0.9603341339861478</v>
+        <v>0.9019739072151843</v>
       </c>
       <c r="AE6">
-        <v>0.9632276876530873</v>
+        <v>0.9019739072151843</v>
       </c>
       <c r="AF6">
-        <v>0.9731702087058188</v>
+        <v>0.9019739072151843</v>
       </c>
       <c r="AG6">
-        <v>0.9834909361622688</v>
+        <v>0.9474010819685997</v>
       </c>
       <c r="AH6">
-        <v>0.9834909361622688</v>
+        <v>1</v>
       </c>
       <c r="AI6">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="AJ6">
-        <v>0.9999999999999997</v>
+        <v>1</v>
+      </c>
+      <c r="AK6">
+        <v>1</v>
+      </c>
+      <c r="AL6">
+        <v>1</v>
+      </c>
+      <c r="AM6">
+        <v>1</v>
+      </c>
+      <c r="AN6">
+        <v>1</v>
+      </c>
+      <c r="AO6">
+        <v>1</v>
+      </c>
+      <c r="AP6">
+        <v>1</v>
+      </c>
+      <c r="AQ6">
+        <v>1</v>
+      </c>
+      <c r="AR6">
+        <v>1</v>
+      </c>
+      <c r="AS6">
+        <v>1</v>
+      </c>
+      <c r="AT6">
+        <v>1</v>
+      </c>
+      <c r="AU6">
+        <v>1</v>
+      </c>
+      <c r="AV6">
+        <v>1</v>
+      </c>
+      <c r="AW6">
+        <v>1</v>
+      </c>
+      <c r="AX6">
+        <v>1</v>
+      </c>
+      <c r="AY6">
+        <v>1</v>
+      </c>
+      <c r="AZ6">
+        <v>1</v>
+      </c>
+      <c r="BA6">
+        <v>1</v>
+      </c>
+      <c r="BB6">
+        <v>1</v>
+      </c>
+      <c r="BC6">
+        <v>1</v>
+      </c>
+      <c r="BD6">
+        <v>1</v>
+      </c>
+      <c r="BE6">
+        <v>1</v>
+      </c>
+      <c r="BF6">
+        <v>1</v>
+      </c>
+      <c r="BG6">
+        <v>1</v>
+      </c>
+      <c r="BH6">
+        <v>1</v>
+      </c>
+      <c r="BI6">
+        <v>1</v>
+      </c>
+      <c r="BJ6">
+        <v>1</v>
+      </c>
+      <c r="BK6">
+        <v>1</v>
+      </c>
+      <c r="BL6">
+        <v>1</v>
+      </c>
+      <c r="BM6">
+        <v>1</v>
+      </c>
+      <c r="BN6">
+        <v>1</v>
+      </c>
+      <c r="BO6">
+        <v>1</v>
+      </c>
+      <c r="BP6">
+        <v>1</v>
+      </c>
+      <c r="BQ6">
+        <v>1</v>
+      </c>
+      <c r="BR6">
+        <v>1</v>
+      </c>
+      <c r="BS6">
+        <v>1</v>
+      </c>
+      <c r="BT6">
+        <v>1</v>
+      </c>
+      <c r="BU6">
+        <v>1</v>
+      </c>
+      <c r="BV6">
+        <v>1</v>
+      </c>
+      <c r="BW6">
+        <v>1</v>
+      </c>
+      <c r="BX6">
+        <v>1</v>
+      </c>
+      <c r="BY6">
+        <v>1</v>
+      </c>
+      <c r="BZ6">
+        <v>1</v>
+      </c>
+      <c r="CA6">
+        <v>1</v>
+      </c>
+      <c r="CB6">
+        <v>1</v>
+      </c>
+      <c r="CC6">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1901,66 +3656,66 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
-        <v>35</v>
+        <v>80</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>41</v>
+        <v>86</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>42</v>
+        <v>87</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>43</v>
+        <v>88</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>44</v>
+        <v>89</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>45</v>
+        <v>90</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>46</v>
+        <v>91</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>47</v>
+        <v>92</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>48</v>
+        <v>93</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>49</v>
+        <v>94</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>50</v>
+        <v>95</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>51</v>
+        <v>96</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>52</v>
+        <v>97</v>
       </c>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
-        <v>36</v>
+        <v>81</v>
       </c>
       <c r="B2">
         <v>0.5</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>41</v>
       </c>
       <c r="D2">
-        <v>13</v>
+        <v>55</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.5020110770686866</v>
+        <v>0.5024981075508291</v>
       </c>
       <c r="G2">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H2">
         <v>48</v>
@@ -1969,39 +3724,39 @@
         <v>900</v>
       </c>
       <c r="J2" t="s">
-        <v>53</v>
+        <v>98</v>
       </c>
       <c r="K2" t="s">
-        <v>54</v>
+        <v>99</v>
       </c>
       <c r="L2" t="s">
-        <v>55</v>
+        <v>100</v>
       </c>
       <c r="M2" t="s">
-        <v>56</v>
+        <v>101</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="1" t="s">
-        <v>37</v>
+        <v>82</v>
       </c>
       <c r="B3">
         <v>0.5</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>46</v>
       </c>
       <c r="D3">
-        <v>7</v>
+        <v>54</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.5121408295774588</v>
+        <v>0.5247974181792513</v>
       </c>
       <c r="G3">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="H3">
         <v>48</v>
@@ -2010,39 +3765,39 @@
         <v>900</v>
       </c>
       <c r="J3" t="s">
-        <v>53</v>
+        <v>98</v>
       </c>
       <c r="K3" t="s">
-        <v>54</v>
+        <v>99</v>
       </c>
       <c r="L3" t="s">
-        <v>55</v>
+        <v>100</v>
       </c>
       <c r="M3" t="s">
-        <v>56</v>
+        <v>101</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="1" t="s">
-        <v>38</v>
+        <v>83</v>
       </c>
       <c r="B4">
         <v>0.5</v>
       </c>
       <c r="C4">
-        <v>2</v>
+        <v>47</v>
       </c>
       <c r="D4">
-        <v>11</v>
+        <v>55</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.5074339160314385</v>
+        <v>0.5576743055961837</v>
       </c>
       <c r="G4">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H4">
         <v>48</v>
@@ -2051,39 +3806,39 @@
         <v>900</v>
       </c>
       <c r="J4" t="s">
-        <v>53</v>
+        <v>98</v>
       </c>
       <c r="K4" t="s">
-        <v>54</v>
+        <v>99</v>
       </c>
       <c r="L4" t="s">
-        <v>55</v>
+        <v>100</v>
       </c>
       <c r="M4" t="s">
-        <v>56</v>
+        <v>101</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="1" t="s">
-        <v>39</v>
+        <v>84</v>
       </c>
       <c r="B5">
         <v>0.5</v>
       </c>
       <c r="C5">
-        <v>2</v>
+        <v>40</v>
       </c>
       <c r="D5">
-        <v>8</v>
+        <v>55</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.518431905613718</v>
+        <v>0.577337628582276</v>
       </c>
       <c r="G5">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="H5">
         <v>48</v>
@@ -2092,21 +3847,21 @@
         <v>900</v>
       </c>
       <c r="J5" t="s">
-        <v>53</v>
+        <v>98</v>
       </c>
       <c r="K5" t="s">
-        <v>54</v>
+        <v>99</v>
       </c>
       <c r="L5" t="s">
-        <v>55</v>
+        <v>100</v>
       </c>
       <c r="M5" t="s">
-        <v>56</v>
+        <v>101</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="1" t="s">
-        <v>40</v>
+        <v>85</v>
       </c>
       <c r="B6">
         <v>0.5</v>
@@ -2115,16 +3870,16 @@
         <v>1</v>
       </c>
       <c r="D6">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.6135779905564928</v>
+        <v>0.579106168927765</v>
       </c>
       <c r="G6">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H6">
         <v>48</v>
@@ -2133,16 +3888,16 @@
         <v>900</v>
       </c>
       <c r="J6" t="s">
-        <v>53</v>
+        <v>98</v>
       </c>
       <c r="K6" t="s">
-        <v>54</v>
+        <v>99</v>
       </c>
       <c r="L6" t="s">
-        <v>55</v>
+        <v>100</v>
       </c>
       <c r="M6" t="s">
-        <v>56</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>
@@ -2160,66 +3915,66 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
-        <v>35</v>
+        <v>80</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>41</v>
+        <v>86</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>42</v>
+        <v>87</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>43</v>
+        <v>88</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>44</v>
+        <v>89</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>45</v>
+        <v>90</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>46</v>
+        <v>91</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>47</v>
+        <v>92</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>48</v>
+        <v>93</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>49</v>
+        <v>94</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>50</v>
+        <v>95</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>51</v>
+        <v>96</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>52</v>
+        <v>97</v>
       </c>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
-        <v>36</v>
+        <v>81</v>
       </c>
       <c r="B2">
         <v>0.7</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>41</v>
       </c>
       <c r="D2">
-        <v>16</v>
+        <v>63</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.8282591936206097</v>
+        <v>0.7374870528324571</v>
       </c>
       <c r="G2">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="H2">
         <v>48</v>
@@ -2228,39 +3983,39 @@
         <v>900</v>
       </c>
       <c r="J2" t="s">
-        <v>53</v>
+        <v>98</v>
       </c>
       <c r="K2" t="s">
-        <v>54</v>
+        <v>99</v>
       </c>
       <c r="L2" t="s">
-        <v>55</v>
+        <v>100</v>
       </c>
       <c r="M2" t="s">
-        <v>56</v>
+        <v>101</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="1" t="s">
-        <v>37</v>
+        <v>82</v>
       </c>
       <c r="B3">
         <v>0.7</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>46</v>
       </c>
       <c r="D3">
+        <v>60</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0.7881264445756631</v>
+      </c>
+      <c r="G3">
         <v>14</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>0.7188248670529243</v>
-      </c>
-      <c r="G3">
-        <v>13</v>
       </c>
       <c r="H3">
         <v>48</v>
@@ -2269,39 +4024,39 @@
         <v>900</v>
       </c>
       <c r="J3" t="s">
-        <v>53</v>
+        <v>98</v>
       </c>
       <c r="K3" t="s">
-        <v>54</v>
+        <v>99</v>
       </c>
       <c r="L3" t="s">
-        <v>55</v>
+        <v>100</v>
       </c>
       <c r="M3" t="s">
-        <v>56</v>
+        <v>101</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="1" t="s">
-        <v>38</v>
+        <v>83</v>
       </c>
       <c r="B4">
         <v>0.7</v>
       </c>
       <c r="C4">
-        <v>2</v>
+        <v>47</v>
       </c>
       <c r="D4">
-        <v>15</v>
+        <v>61</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.7118630431348707</v>
+        <v>0.7653748282539133</v>
       </c>
       <c r="G4">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H4">
         <v>48</v>
@@ -2310,39 +4065,39 @@
         <v>900</v>
       </c>
       <c r="J4" t="s">
-        <v>53</v>
+        <v>98</v>
       </c>
       <c r="K4" t="s">
-        <v>54</v>
+        <v>99</v>
       </c>
       <c r="L4" t="s">
-        <v>55</v>
+        <v>100</v>
       </c>
       <c r="M4" t="s">
-        <v>56</v>
+        <v>101</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="1" t="s">
-        <v>39</v>
+        <v>84</v>
       </c>
       <c r="B5">
         <v>0.7</v>
       </c>
       <c r="C5">
-        <v>2</v>
+        <v>40</v>
       </c>
       <c r="D5">
-        <v>15</v>
+        <v>63</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.7230180188075476</v>
+        <v>0.7809896116718145</v>
       </c>
       <c r="G5">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="H5">
         <v>48</v>
@@ -2351,21 +4106,21 @@
         <v>900</v>
       </c>
       <c r="J5" t="s">
-        <v>53</v>
+        <v>98</v>
       </c>
       <c r="K5" t="s">
-        <v>54</v>
+        <v>99</v>
       </c>
       <c r="L5" t="s">
-        <v>55</v>
+        <v>100</v>
       </c>
       <c r="M5" t="s">
-        <v>56</v>
+        <v>101</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="1" t="s">
-        <v>40</v>
+        <v>85</v>
       </c>
       <c r="B6">
         <v>0.7</v>
@@ -2374,16 +4129,16 @@
         <v>1</v>
       </c>
       <c r="D6">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.7838708738478608</v>
+        <v>0.7383993635036822</v>
       </c>
       <c r="G6">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H6">
         <v>48</v>
@@ -2392,16 +4147,16 @@
         <v>900</v>
       </c>
       <c r="J6" t="s">
-        <v>53</v>
+        <v>98</v>
       </c>
       <c r="K6" t="s">
-        <v>54</v>
+        <v>99</v>
       </c>
       <c r="L6" t="s">
-        <v>55</v>
+        <v>100</v>
       </c>
       <c r="M6" t="s">
-        <v>56</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>
@@ -2419,66 +4174,66 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
-        <v>35</v>
+        <v>80</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>41</v>
+        <v>86</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>42</v>
+        <v>87</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>43</v>
+        <v>88</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>44</v>
+        <v>89</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>45</v>
+        <v>90</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>46</v>
+        <v>91</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>47</v>
+        <v>92</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>48</v>
+        <v>93</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>49</v>
+        <v>94</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>50</v>
+        <v>95</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>51</v>
+        <v>96</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>52</v>
+        <v>97</v>
       </c>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
-        <v>36</v>
+        <v>81</v>
       </c>
       <c r="B2">
         <v>0.8</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>41</v>
       </c>
       <c r="D2">
-        <v>16</v>
+        <v>65</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.8282591936206097</v>
+        <v>0.8025687999161952</v>
       </c>
       <c r="G2">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="H2">
         <v>48</v>
@@ -2487,39 +4242,39 @@
         <v>900</v>
       </c>
       <c r="J2" t="s">
-        <v>53</v>
+        <v>98</v>
       </c>
       <c r="K2" t="s">
-        <v>54</v>
+        <v>99</v>
       </c>
       <c r="L2" t="s">
-        <v>55</v>
+        <v>100</v>
       </c>
       <c r="M2" t="s">
-        <v>56</v>
+        <v>101</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="1" t="s">
-        <v>37</v>
+        <v>82</v>
       </c>
       <c r="B3">
         <v>0.8</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>46</v>
       </c>
       <c r="D3">
+        <v>62</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0.8069957026707543</v>
+      </c>
+      <c r="G3">
         <v>16</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>0.8393231410772289</v>
-      </c>
-      <c r="G3">
-        <v>15</v>
       </c>
       <c r="H3">
         <v>48</v>
@@ -2528,36 +4283,36 @@
         <v>900</v>
       </c>
       <c r="J3" t="s">
-        <v>53</v>
+        <v>98</v>
       </c>
       <c r="K3" t="s">
-        <v>54</v>
+        <v>99</v>
       </c>
       <c r="L3" t="s">
-        <v>55</v>
+        <v>100</v>
       </c>
       <c r="M3" t="s">
-        <v>56</v>
+        <v>101</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="1" t="s">
-        <v>38</v>
+        <v>83</v>
       </c>
       <c r="B4">
         <v>0.8</v>
       </c>
       <c r="C4">
-        <v>2</v>
+        <v>47</v>
       </c>
       <c r="D4">
-        <v>17</v>
+        <v>62</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.8466470128088575</v>
+        <v>0.8227976758488982</v>
       </c>
       <c r="G4">
         <v>15</v>
@@ -2569,39 +4324,39 @@
         <v>900</v>
       </c>
       <c r="J4" t="s">
-        <v>53</v>
+        <v>98</v>
       </c>
       <c r="K4" t="s">
-        <v>54</v>
+        <v>99</v>
       </c>
       <c r="L4" t="s">
-        <v>55</v>
+        <v>100</v>
       </c>
       <c r="M4" t="s">
-        <v>56</v>
+        <v>101</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="1" t="s">
-        <v>39</v>
+        <v>84</v>
       </c>
       <c r="B5">
         <v>0.8</v>
       </c>
       <c r="C5">
-        <v>2</v>
+        <v>40</v>
       </c>
       <c r="D5">
-        <v>17</v>
+        <v>65</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.8322629798884332</v>
+        <v>0.8765881509991222</v>
       </c>
       <c r="G5">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="H5">
         <v>48</v>
@@ -2610,21 +4365,21 @@
         <v>900</v>
       </c>
       <c r="J5" t="s">
-        <v>53</v>
+        <v>98</v>
       </c>
       <c r="K5" t="s">
-        <v>54</v>
+        <v>99</v>
       </c>
       <c r="L5" t="s">
-        <v>55</v>
+        <v>100</v>
       </c>
       <c r="M5" t="s">
-        <v>56</v>
+        <v>101</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="1" t="s">
-        <v>40</v>
+        <v>85</v>
       </c>
       <c r="B6">
         <v>0.8</v>
@@ -2633,16 +4388,16 @@
         <v>1</v>
       </c>
       <c r="D6">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.8184789115090475</v>
+        <v>0.8232868053249484</v>
       </c>
       <c r="G6">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="H6">
         <v>48</v>
@@ -2651,16 +4406,16 @@
         <v>900</v>
       </c>
       <c r="J6" t="s">
-        <v>53</v>
+        <v>98</v>
       </c>
       <c r="K6" t="s">
-        <v>54</v>
+        <v>99</v>
       </c>
       <c r="L6" t="s">
-        <v>55</v>
+        <v>100</v>
       </c>
       <c r="M6" t="s">
-        <v>56</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>
@@ -2678,66 +4433,66 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
-        <v>35</v>
+        <v>80</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>41</v>
+        <v>86</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>42</v>
+        <v>87</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>43</v>
+        <v>88</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>44</v>
+        <v>89</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>45</v>
+        <v>90</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>46</v>
+        <v>91</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>47</v>
+        <v>92</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>48</v>
+        <v>93</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>49</v>
+        <v>94</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>50</v>
+        <v>95</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>51</v>
+        <v>96</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>52</v>
+        <v>97</v>
       </c>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
-        <v>36</v>
+        <v>81</v>
       </c>
       <c r="B2">
         <v>0.9</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>41</v>
       </c>
       <c r="D2">
-        <v>18</v>
+        <v>68</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.9091815274567845</v>
+        <v>0.9265001956450487</v>
       </c>
       <c r="G2">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="H2">
         <v>48</v>
@@ -2746,39 +4501,39 @@
         <v>900</v>
       </c>
       <c r="J2" t="s">
-        <v>53</v>
+        <v>98</v>
       </c>
       <c r="K2" t="s">
-        <v>54</v>
+        <v>99</v>
       </c>
       <c r="L2" t="s">
-        <v>55</v>
+        <v>100</v>
       </c>
       <c r="M2" t="s">
-        <v>56</v>
+        <v>101</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="1" t="s">
-        <v>37</v>
+        <v>82</v>
       </c>
       <c r="B3">
         <v>0.9</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>46</v>
       </c>
       <c r="D3">
-        <v>20</v>
+        <v>71</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.903012381057436</v>
+        <v>0.9287275242423964</v>
       </c>
       <c r="G3">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="H3">
         <v>48</v>
@@ -2787,39 +4542,39 @@
         <v>900</v>
       </c>
       <c r="J3" t="s">
-        <v>53</v>
+        <v>98</v>
       </c>
       <c r="K3" t="s">
-        <v>54</v>
+        <v>99</v>
       </c>
       <c r="L3" t="s">
-        <v>55</v>
+        <v>100</v>
       </c>
       <c r="M3" t="s">
-        <v>56</v>
+        <v>101</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="1" t="s">
-        <v>38</v>
+        <v>83</v>
       </c>
       <c r="B4">
         <v>0.9</v>
       </c>
       <c r="C4">
-        <v>2</v>
+        <v>47</v>
       </c>
       <c r="D4">
-        <v>19</v>
+        <v>72</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.9128020615160564</v>
+        <v>0.9402048296018715</v>
       </c>
       <c r="G4">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="H4">
         <v>48</v>
@@ -2828,39 +4583,39 @@
         <v>900</v>
       </c>
       <c r="J4" t="s">
-        <v>53</v>
+        <v>98</v>
       </c>
       <c r="K4" t="s">
-        <v>54</v>
+        <v>99</v>
       </c>
       <c r="L4" t="s">
-        <v>55</v>
+        <v>100</v>
       </c>
       <c r="M4" t="s">
-        <v>56</v>
+        <v>101</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="1" t="s">
-        <v>39</v>
+        <v>84</v>
       </c>
       <c r="B5">
         <v>0.9</v>
       </c>
       <c r="C5">
-        <v>2</v>
+        <v>40</v>
       </c>
       <c r="D5">
-        <v>20</v>
+        <v>68</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.9056866731841219</v>
+        <v>0.9478118429959723</v>
       </c>
       <c r="G5">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="H5">
         <v>48</v>
@@ -2869,21 +4624,21 @@
         <v>900</v>
       </c>
       <c r="J5" t="s">
-        <v>53</v>
+        <v>98</v>
       </c>
       <c r="K5" t="s">
-        <v>54</v>
+        <v>99</v>
       </c>
       <c r="L5" t="s">
-        <v>55</v>
+        <v>100</v>
       </c>
       <c r="M5" t="s">
-        <v>56</v>
+        <v>101</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="1" t="s">
-        <v>40</v>
+        <v>85</v>
       </c>
       <c r="B6">
         <v>0.9</v>
@@ -2892,16 +4647,16 @@
         <v>1</v>
       </c>
       <c r="D6">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.9434653474763907</v>
+        <v>0.9019739072151843</v>
       </c>
       <c r="G6">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="H6">
         <v>48</v>
@@ -2910,16 +4665,16 @@
         <v>900</v>
       </c>
       <c r="J6" t="s">
-        <v>53</v>
+        <v>98</v>
       </c>
       <c r="K6" t="s">
-        <v>54</v>
+        <v>99</v>
       </c>
       <c r="L6" t="s">
-        <v>55</v>
+        <v>100</v>
       </c>
       <c r="M6" t="s">
-        <v>56</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>
